--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -25,7 +25,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Baseline is for 2 wonders with these stats each</t>
+Each wonder should have at least 100 in here as they should not be rushed</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Marathon</t>
   </si>
@@ -149,20 +149,83 @@
     <t>Wonders</t>
   </si>
   <si>
-    <t>0/0/5</t>
-  </si>
-  <si>
     <t>Free Priest</t>
   </si>
   <si>
     <t>The values from the wonders should be spread across the number of wonders that each religion has, taking into account the aggregated production costs</t>
+  </si>
+  <si>
+    <t>Religions</t>
+  </si>
+  <si>
+    <t>Asatru</t>
+  </si>
+  <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Christianity</t>
+  </si>
+  <si>
+    <t>Confucianism</t>
+  </si>
+  <si>
+    <t>Hellenism</t>
+  </si>
+  <si>
+    <t>Kemetism</t>
+  </si>
+  <si>
+    <t>Hinduism</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Judaism</t>
+  </si>
+  <si>
+    <t>Nagualism</t>
+  </si>
+  <si>
+    <t>Taosim</t>
+  </si>
+  <si>
+    <t>Zoroastrianism</t>
+  </si>
+  <si>
+    <t>0/0/15</t>
+  </si>
+  <si>
+    <t>The basline for a religion is to have 3 wonders with the aggregate stats shown. It s fine for a religion to have a different number but they should be balanced around these values. It is also expected that there will be 3 unique bonuses available across the wonders in addition to these core values</t>
+  </si>
+  <si>
+    <t>Obs. Comm.</t>
+  </si>
+  <si>
+    <t>Rel. Happ.</t>
+  </si>
+  <si>
+    <t>Rel. Ch.</t>
+  </si>
+  <si>
+    <t>Free Pr.</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Hurry Cost Mod</t>
+  </si>
+  <si>
+    <t>Curr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +252,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -405,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,6 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,48 +844,48 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="33" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="33" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="39"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -1848,174 +1920,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>350</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>660</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>140</v>
-      </c>
-      <c r="D6">
-        <v>350</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="D8">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="R16">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="C12">
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
         <v>4</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
+      <c r="T18">
         <v>1</v>
       </c>
     </row>

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,6 +2189,9 @@
       <c r="M15">
         <v>5</v>
       </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -526,6 +526,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,7 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,48 +844,48 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="34" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37" t="s">
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="40"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="31" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
@@ -2190,7 +2190,22 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,16 +2259,16 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,6 +2166,24 @@
       <c r="M14">
         <v>2</v>
       </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2021,22 @@
         <v>34</v>
       </c>
       <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
         <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2089,16 +2104,16 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2277,16 +2292,16 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -2295,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,19 +2024,19 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="T7">
         <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,6 +2089,21 @@
       <c r="M10">
         <v>2</v>
       </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,6 +2052,24 @@
       <c r="M8">
         <v>4</v>
       </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/Support/Docs/GeneralValues.xlsx
+++ b/Support/Docs/GeneralValues.xlsx
@@ -1922,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
@@ -2053,22 +2053,25 @@
         <v>4</v>
       </c>
       <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
